--- a/test.xlsx
+++ b/test.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\quadratic-solver-py-main\quadratic-solver-py-main\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE41C3BE-BEAA-4333-B010-F169D883190B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="0"/>
+    <workbookView xWindow="16620" yWindow="3165" windowWidth="11700" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
-    <sheet name="Output" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Output" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -30,8 +35,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -40,10 +45,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -63,111 +70,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment/>
-      <protection/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-  </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="15" builtinId="5"/>
-    <cellStyle name="Currency" xfId="16" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="17" builtinId="7"/>
-    <cellStyle name="Comma" xfId="18" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="19" builtinId="6"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -475,27 +391,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.424285714285714" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -506,7 +422,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -517,7 +433,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -528,18 +444,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>-2</v>
       </c>
       <c r="B5">
-        <v>4.50</v>
+        <v>4.5</v>
       </c>
       <c r="C5">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -550,7 +466,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -561,9 +477,9 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -572,7 +488,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15">
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4</v>
       </c>
@@ -583,7 +499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15">
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -594,7 +510,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15">
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>-4</v>
       </c>
@@ -607,18 +523,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.424285714285714" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
